--- a/data/long_bre/P23_2-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_2-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,69%</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>-17,55%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 1,12</t>
+          <t>-13,79; 0,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 9,43</t>
+          <t>-2,59; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 3,62</t>
+          <t>-2,83; 10,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 37,0</t>
+          <t>-34,11; 0,81</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; 37,72</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-10,23; 53,15</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,64%</t>
+          <t>-1,23%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-11,39%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-13,97%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 6,68</t>
+          <t>-8,19; 7,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 1,68</t>
+          <t>-12,42; 1,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 18,88</t>
+          <t>-16,92; 2,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 3,98</t>
+          <t>-18,4; 20,86</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-24,16; 2,92</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-33,8; 6,37</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>25,99%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 12,45</t>
+          <t>-1,14; 12,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 7,51</t>
+          <t>-3,64; 8,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 57,65</t>
+          <t>-5,38; 10,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 34,57</t>
+          <t>-4,42; 57,76</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-12,65; 39,54</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; 37,15</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,07%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 0,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 10,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 1,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 41,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>-14,64%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23,97%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 11,33</t>
+          <t>-13,91; 3,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 5,57</t>
+          <t>-4,67; 10,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 36,33</t>
+          <t>-2,89; 10,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 13,55</t>
+          <t>-33,96; 12,31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; 39,74</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 66,66</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,97%</t>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-5,32%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-15,69%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 12,58</t>
+          <t>-6,58; 9,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 4,29</t>
+          <t>-9,93; 5,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 55,53</t>
+          <t>-16,33; 2,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,11; 19,3</t>
+          <t>-15,14; 30,31</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-19,76; 12,65</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-32,93; 5,28</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-17,14%</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>13,71%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-1,92%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 9,29</t>
+          <t>-4,04; 11,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 10,57</t>
+          <t>-6,64; 6,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-47,63; 32,78</t>
+          <t>-5,84; 11,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,79; 44,79</t>
+          <t>-12,55; 46,94</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-22,89; 30,99</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-14,63; 38,23</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 18,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 17,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 76,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 62,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>-10,31%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-8,31%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 18,89</t>
+          <t>-19,63; 11,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 10,86</t>
+          <t>-15,04; 10,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 90,47</t>
+          <t>-15,49; 19,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-43,33; 46,65</t>
+          <t>-45,2; 45,65</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-39,26; 43,27</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-41,77; 124,58</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,59</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-18,46%</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,95; -1,08</t>
+          <t>-14,48; 17,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,77</t>
+          <t>-10,39; 16,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,94; -3,02</t>
+          <t>-18,76; 25,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 25,57</t>
+          <t>-37,13; 79,59</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-22,42; 56,28</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-40,7; 126,45</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>-10,91</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-4,71%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-26,11%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,68</t>
+          <t>-18,1; 17,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 2,6</t>
+          <t>-17,64; 11,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 20,29</t>
+          <t>-29,9; 9,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 6,1</t>
+          <t>-40,72; 67,09</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-43,99; 50,72</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-56,03; 28,68</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1486,359 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 9,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 39,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 17,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-5,46</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-15,61%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-10,91; -0,3</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 6,43</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 8,61</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-28,31; -0,89</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 25,0</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 43,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-3,05</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-4,77</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-6,78%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-11,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-5,28; 5,42</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-7,75; 1,6</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-11,63; 1,24</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-12,9; 15,73</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-16,07; 4,0</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-24,79; 3,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 9,7</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 5,04</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 6,43</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 39,75</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-12,36; 21,4</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-13,09; 20,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
